--- a/qa/06.规范模板/技能log需求.xlsx
+++ b/qa/06.规范模板/技能log需求.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="25703"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglei/svn/qa/06.规范模板/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="12120" yWindow="2920" windowWidth="33740" windowHeight="17660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>伤害公式相关log内容：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,83 +34,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>暴击判定系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本伤害修正系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能相关的log内容：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spellID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用的effectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用的buffID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect造成的伤害结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff剩余周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发时间（spell、effect、buff）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效时间（spell、effect、buff）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff施法者、持有者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能发出者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型（伤害、治疗）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击方基础属性（速度、抗性、生命值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性相克系数（攻击方属性、防御方属性、系数值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害系数，治疗系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定伤害值，固定治疗值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击方计算数值（物理攻击修正系数，总物理攻击力，法术攻击修正系数,总法术攻击力，buff附加物理攻击力，buff附加法术攻击力）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>攻击方基础属性（力量、智力，速度，命中率，暴击率，暴击伤害百分比）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>受击方基础属性（速度、抗性、生命值、防御力、受伤百分比）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击判定系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本伤害修正系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能伤害系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定伤害值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性相克系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能相关的log内容：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spellID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用的effectID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用的buffID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect造成的伤害结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff剩余周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发时间（spell、effect、buff）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生效时间（spell、effect、buff）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff施法者、持有者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能发出者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能类型（伤害、治疗）</t>
+    <t>受击方计算数值（防御力修正系数，防御力、受伤百分比）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +188,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="办公室">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -204,7 +226,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="办公室">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -276,7 +298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="办公室">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -450,13 +472,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B24"/>
+  <dimension ref="A2:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -470,102 +492,117 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>11</v>
+      <c r="B12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>12</v>
+      <c r="A15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
